--- a/data/financial_statements/sofp/NUE.xlsx
+++ b/data/financial_statements/sofp/NUE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>3427290000</v>
+        <v>3427000000</v>
       </c>
       <c r="C2">
-        <v>2365995000</v>
+        <v>2366000000</v>
       </c>
       <c r="D2">
-        <v>4172134000</v>
+        <v>4172000000</v>
       </c>
       <c r="E2">
-        <v>2617863000</v>
+        <v>2618000000</v>
       </c>
       <c r="F2">
-        <v>2011540000</v>
+        <v>2012000000</v>
       </c>
       <c r="G2">
         <v>3121065000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>4200643000</v>
+        <v>4201000000</v>
       </c>
       <c r="C3">
-        <v>4749600000</v>
+        <v>4750000000</v>
       </c>
       <c r="D3">
-        <v>4111478000</v>
+        <v>4111000000</v>
       </c>
       <c r="E3">
-        <v>3853972000</v>
+        <v>3969000000</v>
       </c>
       <c r="F3">
-        <v>4087293000</v>
+        <v>4087000000</v>
       </c>
       <c r="G3">
         <v>3399076000</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>6046235000</v>
+        <v>6046000000</v>
       </c>
       <c r="C4">
-        <v>6579142000</v>
+        <v>6579000000</v>
       </c>
       <c r="D4">
-        <v>6245679000</v>
+        <v>6246000000</v>
       </c>
       <c r="E4">
-        <v>6011182000</v>
+        <v>6011000000</v>
       </c>
       <c r="F4">
-        <v>5678715000</v>
+        <v>5679000000</v>
       </c>
       <c r="G4">
         <v>5240750000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>682289000</v>
+        <v>682000000</v>
       </c>
       <c r="C5">
-        <v>339074000</v>
+        <v>339000000</v>
       </c>
       <c r="D5">
-        <v>252060000</v>
+        <v>252000000</v>
       </c>
       <c r="E5">
-        <v>316540000</v>
+        <v>201000000</v>
       </c>
       <c r="F5">
-        <v>346277000</v>
+        <v>346000000</v>
       </c>
       <c r="G5">
         <v>295048000</v>
@@ -1099,23 +1210,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>14356460000</v>
+        <v>14356000000</v>
       </c>
       <c r="C6">
-        <v>14033810000</v>
+        <v>14034000000</v>
       </c>
       <c r="D6">
-        <v>14781350000</v>
+        <v>14781000000</v>
       </c>
       <c r="E6">
-        <v>12799560000</v>
+        <v>12800000000</v>
       </c>
       <c r="F6">
-        <v>12123830000</v>
+        <v>12124000000</v>
       </c>
       <c r="G6">
         <v>12055940000</v>
@@ -1221,23 +1332,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>9440074000</v>
+        <v>9440000000</v>
       </c>
       <c r="C7">
-        <v>9213600000</v>
+        <v>9214000000</v>
       </c>
       <c r="D7">
-        <v>8921263000</v>
+        <v>8921000000</v>
       </c>
       <c r="E7">
-        <v>8114818000</v>
+        <v>8207000000</v>
       </c>
       <c r="F7">
-        <v>7777277000</v>
+        <v>7777000000</v>
       </c>
       <c r="G7">
         <v>7235536000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>80000000</v>
@@ -1384,23 +1495,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>7310393000</v>
+        <v>7310000000</v>
       </c>
       <c r="C9">
-        <v>7358652000</v>
+        <v>7359000000</v>
       </c>
       <c r="D9">
-        <v>3967344000</v>
+        <v>3967000000</v>
       </c>
       <c r="E9">
-        <v>3931103000</v>
+        <v>3931000000</v>
       </c>
       <c r="F9">
-        <v>3959284000</v>
+        <v>3959000000</v>
       </c>
       <c r="G9">
         <v>2868759000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>965780000</v>
+        <v>886000000</v>
       </c>
       <c r="C10">
-        <v>1062394000</v>
+        <v>974000000</v>
       </c>
       <c r="D10">
-        <v>962910000</v>
+        <v>875000000</v>
       </c>
       <c r="E10">
-        <v>977594000</v>
+        <v>117000000</v>
       </c>
       <c r="F10">
-        <v>1089093000</v>
+        <v>808000000</v>
       </c>
       <c r="G10">
         <v>835348000</v>
@@ -1628,8 +1739,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>17716250000</v>
@@ -1750,23 +1861,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>32072700000</v>
+        <v>32073000000</v>
       </c>
       <c r="C12">
-        <v>31668460000</v>
+        <v>31668000000</v>
       </c>
       <c r="D12">
-        <v>28632870000</v>
+        <v>28633000000</v>
       </c>
       <c r="E12">
-        <v>25823070000</v>
+        <v>25823000000</v>
       </c>
       <c r="F12">
-        <v>24949480000</v>
+        <v>24949000000</v>
       </c>
       <c r="G12">
         <v>22995580000</v>
@@ -1872,23 +1983,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>1810388000</v>
+        <v>1810000000</v>
       </c>
       <c r="C13">
-        <v>2315796000</v>
+        <v>2316000000</v>
       </c>
       <c r="D13">
-        <v>1900536000</v>
+        <v>1901000000</v>
       </c>
       <c r="E13">
-        <v>1974041000</v>
+        <v>1974000000</v>
       </c>
       <c r="F13">
-        <v>1870035000</v>
+        <v>1870000000</v>
       </c>
       <c r="G13">
         <v>2204137000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1114671000</v>
@@ -2116,23 +2227,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>93643000</v>
+        <v>94000000</v>
       </c>
       <c r="C15">
-        <v>729680000</v>
+        <v>730000000</v>
       </c>
       <c r="D15">
-        <v>716057000</v>
+        <v>716000000</v>
       </c>
       <c r="E15">
-        <v>723401000</v>
+        <v>744000000</v>
       </c>
       <c r="F15">
-        <v>717867000</v>
+        <v>718000000</v>
       </c>
       <c r="G15">
         <v>112713000</v>
@@ -2238,8 +2349,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D16">
         <v>602537000</v>
@@ -2258,8 +2369,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2728000000</v>
@@ -2299,23 +2410,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>4632089000</v>
+        <v>4632000000</v>
       </c>
       <c r="C18">
-        <v>5359201000</v>
+        <v>5359000000</v>
       </c>
       <c r="D18">
-        <v>5133835000</v>
+        <v>5134000000</v>
       </c>
       <c r="E18">
-        <v>5157413000</v>
+        <v>5157000000</v>
       </c>
       <c r="F18">
-        <v>4797599000</v>
+        <v>4798000000</v>
       </c>
       <c r="G18">
         <v>3879950000</v>
@@ -2421,23 +2532,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>6617030000</v>
+        <v>6617000000</v>
       </c>
       <c r="C19">
-        <v>6621685000</v>
+        <v>6622000000</v>
       </c>
       <c r="D19">
-        <v>6112331000</v>
+        <v>6112000000</v>
       </c>
       <c r="E19">
-        <v>4961410000</v>
+        <v>5036000000</v>
       </c>
       <c r="F19">
-        <v>4949945000</v>
+        <v>4950000000</v>
       </c>
       <c r="G19">
         <v>5275496000</v>
@@ -2543,8 +2654,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>1998906000</v>
@@ -2665,8 +2776,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1300000000</v>
@@ -2706,8 +2817,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>699000000</v>
@@ -2747,8 +2858,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>8615936000</v>
@@ -2869,23 +2980,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>13248030000</v>
+        <v>13248000000</v>
       </c>
       <c r="C24">
-        <v>13815650000</v>
+        <v>13816000000</v>
       </c>
       <c r="D24">
-        <v>12489750000</v>
+        <v>12490000000</v>
       </c>
       <c r="E24">
-        <v>11219280000</v>
+        <v>11219000000</v>
       </c>
       <c r="F24">
-        <v>10999190000</v>
+        <v>10999000000</v>
       </c>
       <c r="G24">
         <v>10285930000</v>
@@ -2991,8 +3102,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2128521000</v>
@@ -3113,23 +3224,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>152061000</v>
+        <v>152000000</v>
       </c>
       <c r="C26">
-        <v>152061000</v>
+        <v>152000000</v>
       </c>
       <c r="D26">
-        <v>152061000</v>
+        <v>152000000</v>
       </c>
       <c r="E26">
-        <v>152061000</v>
+        <v>152000000</v>
       </c>
       <c r="F26">
-        <v>152061000</v>
+        <v>152000000</v>
       </c>
       <c r="G26">
         <v>152061000</v>
@@ -3235,23 +3346,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>23629650000</v>
+        <v>23630000000</v>
       </c>
       <c r="C27">
-        <v>22064380000</v>
+        <v>22064000000</v>
       </c>
       <c r="D27">
-        <v>19635280000</v>
+        <v>19635000000</v>
       </c>
       <c r="E27">
-        <v>17674100000</v>
+        <v>17674000000</v>
       </c>
       <c r="F27">
-        <v>15561260000</v>
+        <v>15561000000</v>
       </c>
       <c r="G27">
         <v>13550410000</v>
@@ -3357,8 +3468,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>8098221000</v>
@@ -3479,23 +3590,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>18824680000</v>
+        <v>17708000000</v>
       </c>
       <c r="C29">
-        <v>17852810000</v>
+        <v>16809000000</v>
       </c>
       <c r="D29">
-        <v>16143120000</v>
+        <v>15205000000</v>
       </c>
       <c r="E29">
-        <v>14603790000</v>
+        <v>14016000000</v>
       </c>
       <c r="F29">
-        <v>13950290000</v>
+        <v>13423000000</v>
       </c>
       <c r="G29">
         <v>12709650000</v>
@@ -3601,23 +3712,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>18824680000</v>
+        <v>17708000000</v>
       </c>
       <c r="C30">
-        <v>17852810000</v>
+        <v>16809000000</v>
       </c>
       <c r="D30">
-        <v>16143120000</v>
+        <v>15205000000</v>
       </c>
       <c r="E30">
-        <v>14603790000</v>
+        <v>14016000000</v>
       </c>
       <c r="F30">
-        <v>13950290000</v>
+        <v>13423000000</v>
       </c>
       <c r="G30">
         <v>12709650000</v>
@@ -3723,8 +3834,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>32072700000</v>
@@ -3845,8 +3956,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>256545000</v>
@@ -3967,8 +4078,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>11514290000</v>
@@ -4089,23 +4200,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>3283383000</v>
+        <v>3284000000</v>
       </c>
       <c r="C34">
-        <v>4985370000</v>
+        <v>4986000000</v>
       </c>
       <c r="D34">
-        <v>2656254000</v>
+        <v>2656000000</v>
       </c>
       <c r="E34">
-        <v>3066948000</v>
+        <v>3162000000</v>
       </c>
       <c r="F34">
-        <v>3656272000</v>
+        <v>3656000000</v>
       </c>
       <c r="G34">
         <v>2267144000</v>
@@ -4211,23 +4322,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>6710673000</v>
+        <v>6711000000</v>
       </c>
       <c r="C35">
-        <v>7351365000</v>
+        <v>7352000000</v>
       </c>
       <c r="D35">
-        <v>6828388000</v>
+        <v>6828000000</v>
       </c>
       <c r="E35">
-        <v>5684811000</v>
+        <v>5780000000</v>
       </c>
       <c r="F35">
-        <v>5667812000</v>
+        <v>5668000000</v>
       </c>
       <c r="G35">
         <v>5388209000</v>
